--- a/src/main/resources/xlsx/analysis/stat_ow_bks_info.xlsx
+++ b/src/main/resources/xlsx/analysis/stat_ow_bks_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -184,19 +184,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">school本科生队伍党员信息分析
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（数据源自date年统数据）</t>
-    </r>
+    <t>（数据源自year年month月年统数据）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>school本科生队伍党员信息分析</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -320,6 +312,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -652,9 +647,9 @@
     <col min="13" max="13" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -669,149 +664,150 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -825,25 +821,42 @@
       <c r="K10" s="3"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+    <row r="11" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A12:M12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
